--- a/data/Supplementary_Table_2_Public_datasets.xlsx
+++ b/data/Supplementary_Table_2_Public_datasets.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="140">
   <si>
     <t xml:space="preserve">Species</t>
   </si>
@@ -170,6 +170,15 @@
   </si>
   <si>
     <t xml:space="preserve">SRR28882959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3K27me3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRR29065857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRR29065858</t>
   </si>
   <si>
     <t xml:space="preserve">Mnemiopsis leidyi</t>
@@ -534,7 +543,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -575,22 +584,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -616,10 +609,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A59" activeCellId="0" sqref="59:59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1287,114 +1280,114 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="G26" s="4" t="n">
+        <v>38854040</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="4" t="n">
-        <v>29942020</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="G27" s="4" t="n">
-        <v>34545398</v>
+        <v>38854040</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>61</v>
+      <c r="F28" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>37729907</v>
+        <v>29942020</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G29" s="4" t="n">
-        <v>37729907</v>
+        <v>34545398</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>18</v>
@@ -1406,21 +1399,21 @@
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G30" s="4" t="n">
         <v>37729907</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>18</v>
@@ -1432,21 +1425,21 @@
         <v>12</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G31" s="4" t="n">
         <v>37729907</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>18</v>
@@ -1458,21 +1451,21 @@
         <v>12</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G32" s="4" t="n">
         <v>37729907</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>18</v>
@@ -1484,56 +1477,56 @@
         <v>12</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G33" s="4" t="n">
         <v>37729907</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="G34" s="4" t="n">
         <v>37729907</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>69</v>
@@ -1542,67 +1535,67 @@
         <v>37729907</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="3" t="s">
         <v>72</v>
       </c>
       <c r="G36" s="4" t="n">
         <v>37729907</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>73</v>
+      <c r="F37" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="G37" s="4" t="n">
         <v>37729907</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>18</v>
@@ -1614,21 +1607,21 @@
         <v>12</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G38" s="4" t="n">
         <v>37729907</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>18</v>
@@ -1640,391 +1633,391 @@
         <v>12</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G39" s="4" t="n">
         <v>37729907</v>
       </c>
       <c r="H39" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="4" t="n">
+        <v>37729907</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="4" t="n">
+        <v>37729907</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="40" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="12" t="n">
+      <c r="D42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="4" t="n">
         <v>29856957</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H42" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="3" t="s">
+      <c r="D43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="4" t="n">
+        <v>29856957</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="12" t="n">
+      <c r="B44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="4" t="n">
         <v>29856957</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H44" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" s="12" t="n">
+      <c r="D45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" s="4" t="n">
         <v>29856957</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G43" s="12" t="n">
-        <v>29856957</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G44" s="12" t="n">
-        <v>29856957</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G45" s="12" t="n">
-        <v>29856957</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>83</v>
+      <c r="H45" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="4" t="n">
+        <v>29856957</v>
+      </c>
+      <c r="H46" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="G46" s="8" t="n">
-        <v>24642862</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G47" s="8" t="n">
-        <v>24642862</v>
-      </c>
-      <c r="H47" s="3" t="s">
         <v>87</v>
+      </c>
+      <c r="G47" s="4" t="n">
+        <v>29856957</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="G48" s="8" t="n">
+        <v>24642862</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G48" s="4" t="n">
-        <v>32701060</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>24642862</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G49" s="4" t="n">
-        <v>32701060</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="4" t="n">
+        <v>32701060</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="G50" s="4" t="n">
-        <v>25313869</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>25313869</v>
+        <v>32701060</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G52" s="4" t="n">
         <v>25313869</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>32701060</v>
+        <v>25313869</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
@@ -2033,18 +2026,18 @@
         <v>102</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>32701060</v>
+        <v>25313869</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
@@ -2062,151 +2055,151 @@
         <v>32701060</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" s="4" t="n">
+        <v>32701060</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G56" s="4" t="n">
-        <v>35113722</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>109</v>
+        <v>12</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="G57" s="4" t="n">
-        <v>35113722</v>
+        <v>32701060</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F58" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>109</v>
       </c>
       <c r="G58" s="4" t="n">
         <v>35113722</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="E59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="G59" s="4" t="n">
-        <v>34480151</v>
+        <v>35113722</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="G60" s="4" t="n">
-        <v>34480151</v>
+        <v>35113722</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
@@ -2215,76 +2208,76 @@
         <v>117</v>
       </c>
       <c r="G61" s="4" t="n">
-        <v>23526891</v>
+        <v>34480151</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G62" s="4" t="n">
+        <v>34480151</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="G62" s="4" t="n">
-        <v>23526891</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G63" s="4" t="n">
         <v>23526891</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>12</v>
@@ -2296,21 +2289,21 @@
         <v>23526891</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>12</v>
@@ -2322,197 +2315,197 @@
         <v>23526891</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G66" s="4" t="n">
         <v>23526891</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G67" s="4" t="n">
-        <v>22955616</v>
+        <v>23526891</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G68" s="4" t="n">
-        <v>22955616</v>
+        <v>23526891</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F69" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G69" s="8" t="n">
-        <v>32213324</v>
+      <c r="G69" s="4" t="n">
+        <v>22955616</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F70" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G70" s="8" t="n">
-        <v>32213324</v>
+        <v>12</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G70" s="4" t="n">
+        <v>22955616</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F71" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="G71" s="8" t="n">
         <v>32213324</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F72" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F72" s="11" t="s">
         <v>133</v>
       </c>
       <c r="G72" s="8" t="n">
         <v>32213324</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>107</v>
@@ -2521,7 +2514,7 @@
         <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>135</v>
@@ -2530,24 +2523,24 @@
         <v>32213324</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>136</v>
@@ -2556,28 +2549,60 @@
         <v>32213324</v>
       </c>
       <c r="H74" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0"/>
-      <c r="B80" s="0"/>
-      <c r="C80" s="0"/>
-      <c r="D80" s="0"/>
-      <c r="E80" s="0"/>
-      <c r="F80" s="0"/>
-      <c r="G80" s="0"/>
-      <c r="H80" s="0"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0"/>
-      <c r="B81" s="0"/>
-      <c r="C81" s="0"/>
-      <c r="D81" s="0"/>
-      <c r="E81" s="0"/>
-      <c r="F81" s="0"/>
-      <c r="G81" s="0"/>
-      <c r="H81" s="0"/>
+      <c r="C75" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G75" s="8" t="n">
+        <v>32213324</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G76" s="8" t="n">
+        <v>32213324</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0"/>
@@ -2670,11 +2695,31 @@
       <c r="H90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G91" s="3"/>
+      <c r="A91" s="0"/>
+      <c r="B91" s="0"/>
+      <c r="C91" s="0"/>
+      <c r="D91" s="0"/>
+      <c r="E91" s="0"/>
+      <c r="F91" s="0"/>
+      <c r="G91" s="0"/>
+      <c r="H91" s="0"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0"/>
+      <c r="B92" s="0"/>
+      <c r="C92" s="0"/>
+      <c r="D92" s="0"/>
+      <c r="E92" s="0"/>
+      <c r="F92" s="0"/>
+      <c r="G92" s="0"/>
+      <c r="H92" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G93" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="List the genotype (if applicable). If not applicable change &quot;genotype&quot; to something else. For example: strain, sex, cultivar, breed, age, developmental stage, etc" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H44:H45" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="List the genotype (if applicable). If not applicable change &quot;genotype&quot; to something else. For example: strain, sex, cultivar, breed, age, developmental stage, etc" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H46:H47" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
